--- a/AddonLocalizacion/AddonLocalizacion/bin/Debug/carga.xlsx
+++ b/AddonLocalizacion/AddonLocalizacion/bin/Debug/carga.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="353">
   <si>
     <t>F001</t>
   </si>
@@ -1078,9 +1078,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>1-1-010-10-001</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1894,7 @@
   <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L112"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,8 +1983,8 @@
       <c r="K2">
         <v>303</v>
       </c>
-      <c r="L2" t="s">
-        <v>353</v>
+      <c r="L2">
+        <v>999999</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
@@ -2033,8 +2030,8 @@
       <c r="K3">
         <v>304</v>
       </c>
-      <c r="L3" t="s">
-        <v>353</v>
+      <c r="L3">
+        <v>999999</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
@@ -2080,8 +2077,8 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>353</v>
+      <c r="L4">
+        <v>999999</v>
       </c>
       <c r="M4" t="s">
         <v>6</v>
@@ -2127,8 +2124,8 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
-        <v>353</v>
+      <c r="L5">
+        <v>999999</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
@@ -2174,8 +2171,8 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
-        <v>353</v>
+      <c r="L6">
+        <v>999999</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
@@ -2221,8 +2218,8 @@
       <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
-        <v>353</v>
+      <c r="L7">
+        <v>999999</v>
       </c>
       <c r="M7" t="s">
         <v>6</v>
@@ -2268,8 +2265,8 @@
       <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
-        <v>353</v>
+      <c r="L8">
+        <v>999999</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
@@ -2315,8 +2312,8 @@
       <c r="K9">
         <v>307</v>
       </c>
-      <c r="L9" t="s">
-        <v>353</v>
+      <c r="L9">
+        <v>999999</v>
       </c>
       <c r="M9" t="s">
         <v>6</v>
@@ -2362,8 +2359,8 @@
       <c r="K10">
         <v>308</v>
       </c>
-      <c r="L10" t="s">
-        <v>353</v>
+      <c r="L10">
+        <v>999999</v>
       </c>
       <c r="M10" t="s">
         <v>6</v>
@@ -2409,8 +2406,8 @@
       <c r="K11">
         <v>309</v>
       </c>
-      <c r="L11" t="s">
-        <v>353</v>
+      <c r="L11">
+        <v>999999</v>
       </c>
       <c r="M11" t="s">
         <v>6</v>
@@ -2456,8 +2453,8 @@
       <c r="K12">
         <v>310</v>
       </c>
-      <c r="L12" t="s">
-        <v>353</v>
+      <c r="L12">
+        <v>999999</v>
       </c>
       <c r="M12" t="s">
         <v>6</v>
@@ -2503,8 +2500,8 @@
       <c r="K13">
         <v>311</v>
       </c>
-      <c r="L13" t="s">
-        <v>353</v>
+      <c r="L13">
+        <v>999999</v>
       </c>
       <c r="M13" t="s">
         <v>6</v>
@@ -2550,8 +2547,8 @@
       <c r="K14">
         <v>312</v>
       </c>
-      <c r="L14" t="s">
-        <v>353</v>
+      <c r="L14">
+        <v>999999</v>
       </c>
       <c r="M14" t="s">
         <v>6</v>
@@ -2597,8 +2594,8 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" t="s">
-        <v>353</v>
+      <c r="L15">
+        <v>999999</v>
       </c>
       <c r="M15" t="s">
         <v>6</v>
@@ -2644,8 +2641,8 @@
       <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="L16" t="s">
-        <v>353</v>
+      <c r="L16">
+        <v>999999</v>
       </c>
       <c r="M16" t="s">
         <v>6</v>
@@ -2691,8 +2688,8 @@
       <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="L17" t="s">
-        <v>353</v>
+      <c r="L17">
+        <v>999999</v>
       </c>
       <c r="M17" t="s">
         <v>6</v>
@@ -2738,8 +2735,8 @@
       <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="L18" t="s">
-        <v>353</v>
+      <c r="L18">
+        <v>999999</v>
       </c>
       <c r="M18" t="s">
         <v>6</v>
@@ -2785,8 +2782,8 @@
       <c r="K19" t="s">
         <v>50</v>
       </c>
-      <c r="L19" t="s">
-        <v>353</v>
+      <c r="L19">
+        <v>999999</v>
       </c>
       <c r="M19" t="s">
         <v>6</v>
@@ -2832,8 +2829,8 @@
       <c r="K20">
         <v>319</v>
       </c>
-      <c r="L20" t="s">
-        <v>353</v>
+      <c r="L20">
+        <v>999999</v>
       </c>
       <c r="M20" t="s">
         <v>6</v>
@@ -2879,8 +2876,8 @@
       <c r="K21">
         <v>320</v>
       </c>
-      <c r="L21" t="s">
-        <v>353</v>
+      <c r="L21">
+        <v>999999</v>
       </c>
       <c r="M21" t="s">
         <v>6</v>
@@ -2926,8 +2923,8 @@
       <c r="K22">
         <v>322</v>
       </c>
-      <c r="L22" t="s">
-        <v>353</v>
+      <c r="L22">
+        <v>999999</v>
       </c>
       <c r="M22" t="s">
         <v>6</v>
@@ -2973,8 +2970,8 @@
       <c r="K23">
         <v>323</v>
       </c>
-      <c r="L23" t="s">
-        <v>353</v>
+      <c r="L23">
+        <v>999999</v>
       </c>
       <c r="M23" t="s">
         <v>6</v>
@@ -3020,8 +3017,8 @@
       <c r="K24" t="s">
         <v>61</v>
       </c>
-      <c r="L24" t="s">
-        <v>353</v>
+      <c r="L24">
+        <v>999999</v>
       </c>
       <c r="M24" t="s">
         <v>6</v>
@@ -3067,8 +3064,8 @@
       <c r="K25" t="s">
         <v>64</v>
       </c>
-      <c r="L25" t="s">
-        <v>353</v>
+      <c r="L25">
+        <v>999999</v>
       </c>
       <c r="M25" t="s">
         <v>6</v>
@@ -3114,8 +3111,8 @@
       <c r="K26" t="s">
         <v>68</v>
       </c>
-      <c r="L26" t="s">
-        <v>353</v>
+      <c r="L26">
+        <v>999999</v>
       </c>
       <c r="M26" t="s">
         <v>6</v>
@@ -3161,8 +3158,8 @@
       <c r="K27" t="s">
         <v>68</v>
       </c>
-      <c r="L27" t="s">
-        <v>353</v>
+      <c r="L27">
+        <v>999999</v>
       </c>
       <c r="M27" t="s">
         <v>6</v>
@@ -3208,8 +3205,8 @@
       <c r="K28" t="s">
         <v>73</v>
       </c>
-      <c r="L28" t="s">
-        <v>353</v>
+      <c r="L28">
+        <v>999999</v>
       </c>
       <c r="M28" t="s">
         <v>6</v>
@@ -3255,8 +3252,8 @@
       <c r="K29" t="s">
         <v>76</v>
       </c>
-      <c r="L29" t="s">
-        <v>353</v>
+      <c r="L29">
+        <v>999999</v>
       </c>
       <c r="M29" t="s">
         <v>6</v>
@@ -3302,8 +3299,8 @@
       <c r="K30" t="s">
         <v>79</v>
       </c>
-      <c r="L30" t="s">
-        <v>353</v>
+      <c r="L30">
+        <v>999999</v>
       </c>
       <c r="M30" t="s">
         <v>6</v>
@@ -3349,8 +3346,8 @@
       <c r="K31" t="s">
         <v>82</v>
       </c>
-      <c r="L31" t="s">
-        <v>353</v>
+      <c r="L31">
+        <v>999999</v>
       </c>
       <c r="M31" t="s">
         <v>6</v>
@@ -3396,8 +3393,8 @@
       <c r="K32" t="s">
         <v>85</v>
       </c>
-      <c r="L32" t="s">
-        <v>353</v>
+      <c r="L32">
+        <v>999999</v>
       </c>
       <c r="M32" t="s">
         <v>6</v>
@@ -3443,8 +3440,8 @@
       <c r="K33" t="s">
         <v>89</v>
       </c>
-      <c r="L33" t="s">
-        <v>353</v>
+      <c r="L33">
+        <v>999999</v>
       </c>
       <c r="M33" t="s">
         <v>6</v>
@@ -3490,8 +3487,8 @@
       <c r="K34" t="s">
         <v>93</v>
       </c>
-      <c r="L34" t="s">
-        <v>353</v>
+      <c r="L34">
+        <v>999999</v>
       </c>
       <c r="M34" t="s">
         <v>6</v>
@@ -3537,8 +3534,8 @@
       <c r="K35" t="s">
         <v>97</v>
       </c>
-      <c r="L35" t="s">
-        <v>353</v>
+      <c r="L35">
+        <v>999999</v>
       </c>
       <c r="M35" t="s">
         <v>6</v>
@@ -3584,8 +3581,8 @@
       <c r="K36" t="s">
         <v>101</v>
       </c>
-      <c r="L36" t="s">
-        <v>353</v>
+      <c r="L36">
+        <v>999999</v>
       </c>
       <c r="M36" t="s">
         <v>6</v>
@@ -3631,8 +3628,8 @@
       <c r="K37" t="s">
         <v>105</v>
       </c>
-      <c r="L37" t="s">
-        <v>353</v>
+      <c r="L37">
+        <v>999999</v>
       </c>
       <c r="M37" t="s">
         <v>6</v>
@@ -3678,8 +3675,8 @@
       <c r="K38" t="s">
         <v>109</v>
       </c>
-      <c r="L38" t="s">
-        <v>353</v>
+      <c r="L38">
+        <v>999999</v>
       </c>
       <c r="M38" t="s">
         <v>6</v>
@@ -3725,8 +3722,8 @@
       <c r="K39" t="s">
         <v>112</v>
       </c>
-      <c r="L39" t="s">
-        <v>353</v>
+      <c r="L39">
+        <v>999999</v>
       </c>
       <c r="M39" t="s">
         <v>6</v>
@@ -3772,8 +3769,8 @@
       <c r="K40">
         <v>325</v>
       </c>
-      <c r="L40" t="s">
-        <v>353</v>
+      <c r="L40">
+        <v>999999</v>
       </c>
       <c r="M40" t="s">
         <v>6</v>
@@ -3819,8 +3816,8 @@
       <c r="K41" t="s">
         <v>117</v>
       </c>
-      <c r="L41" t="s">
-        <v>353</v>
+      <c r="L41">
+        <v>999999</v>
       </c>
       <c r="M41" t="s">
         <v>6</v>
@@ -3866,8 +3863,8 @@
       <c r="K42">
         <v>330</v>
       </c>
-      <c r="L42" t="s">
-        <v>353</v>
+      <c r="L42">
+        <v>999999</v>
       </c>
       <c r="M42" t="s">
         <v>6</v>
@@ -3913,8 +3910,8 @@
       <c r="K43">
         <v>331</v>
       </c>
-      <c r="L43" t="s">
-        <v>353</v>
+      <c r="L43">
+        <v>999999</v>
       </c>
       <c r="M43" t="s">
         <v>6</v>
@@ -3960,8 +3957,8 @@
       <c r="K44">
         <v>332</v>
       </c>
-      <c r="L44" t="s">
-        <v>353</v>
+      <c r="L44">
+        <v>999999</v>
       </c>
       <c r="M44" t="s">
         <v>6</v>
@@ -4007,8 +4004,8 @@
       <c r="K45" t="s">
         <v>126</v>
       </c>
-      <c r="L45" t="s">
-        <v>353</v>
+      <c r="L45">
+        <v>999999</v>
       </c>
       <c r="M45" t="s">
         <v>6</v>
@@ -4054,8 +4051,8 @@
       <c r="K46" t="s">
         <v>129</v>
       </c>
-      <c r="L46" t="s">
-        <v>353</v>
+      <c r="L46">
+        <v>999999</v>
       </c>
       <c r="M46" t="s">
         <v>6</v>
@@ -4101,8 +4098,8 @@
       <c r="K47" t="s">
         <v>132</v>
       </c>
-      <c r="L47" t="s">
-        <v>353</v>
+      <c r="L47">
+        <v>999999</v>
       </c>
       <c r="M47" t="s">
         <v>6</v>
@@ -4148,8 +4145,8 @@
       <c r="K48" t="s">
         <v>135</v>
       </c>
-      <c r="L48" t="s">
-        <v>353</v>
+      <c r="L48">
+        <v>999999</v>
       </c>
       <c r="M48" t="s">
         <v>6</v>
@@ -4195,8 +4192,8 @@
       <c r="K49" t="s">
         <v>138</v>
       </c>
-      <c r="L49" t="s">
-        <v>353</v>
+      <c r="L49">
+        <v>999999</v>
       </c>
       <c r="M49" t="s">
         <v>6</v>
@@ -4242,8 +4239,8 @@
       <c r="K50" t="s">
         <v>141</v>
       </c>
-      <c r="L50" t="s">
-        <v>353</v>
+      <c r="L50">
+        <v>999999</v>
       </c>
       <c r="M50" t="s">
         <v>6</v>
@@ -4289,8 +4286,8 @@
       <c r="K51" t="s">
         <v>144</v>
       </c>
-      <c r="L51" t="s">
-        <v>353</v>
+      <c r="L51">
+        <v>999999</v>
       </c>
       <c r="M51" t="s">
         <v>6</v>
@@ -4336,8 +4333,8 @@
       <c r="K52" t="s">
         <v>147</v>
       </c>
-      <c r="L52" t="s">
-        <v>353</v>
+      <c r="L52">
+        <v>999999</v>
       </c>
       <c r="M52" t="s">
         <v>6</v>
@@ -4383,8 +4380,8 @@
       <c r="K53">
         <v>333</v>
       </c>
-      <c r="L53" t="s">
-        <v>353</v>
+      <c r="L53">
+        <v>999999</v>
       </c>
       <c r="M53" t="s">
         <v>6</v>
@@ -4430,8 +4427,8 @@
       <c r="K54">
         <v>334</v>
       </c>
-      <c r="L54" t="s">
-        <v>353</v>
+      <c r="L54">
+        <v>999999</v>
       </c>
       <c r="M54" t="s">
         <v>6</v>
@@ -4477,8 +4474,8 @@
       <c r="K55">
         <v>336</v>
       </c>
-      <c r="L55" t="s">
-        <v>353</v>
+      <c r="L55">
+        <v>999999</v>
       </c>
       <c r="M55" t="s">
         <v>6</v>
@@ -4524,8 +4521,8 @@
       <c r="K56">
         <v>337</v>
       </c>
-      <c r="L56" t="s">
-        <v>353</v>
+      <c r="L56">
+        <v>999999</v>
       </c>
       <c r="M56" t="s">
         <v>6</v>
@@ -4571,8 +4568,8 @@
       <c r="K57">
         <v>338</v>
       </c>
-      <c r="L57" t="s">
-        <v>353</v>
+      <c r="L57">
+        <v>999999</v>
       </c>
       <c r="M57" t="s">
         <v>6</v>
@@ -4618,8 +4615,8 @@
       <c r="K58">
         <v>340</v>
       </c>
-      <c r="L58" t="s">
-        <v>353</v>
+      <c r="L58">
+        <v>999999</v>
       </c>
       <c r="M58" t="s">
         <v>6</v>
@@ -4665,8 +4662,8 @@
       <c r="K59">
         <v>341</v>
       </c>
-      <c r="L59" t="s">
-        <v>353</v>
+      <c r="L59">
+        <v>999999</v>
       </c>
       <c r="M59" t="s">
         <v>6</v>
@@ -4712,8 +4709,8 @@
       <c r="K60">
         <v>342</v>
       </c>
-      <c r="L60" t="s">
-        <v>353</v>
+      <c r="L60">
+        <v>999999</v>
       </c>
       <c r="M60" t="s">
         <v>6</v>
@@ -4759,8 +4756,8 @@
       <c r="K61" t="s">
         <v>166</v>
       </c>
-      <c r="L61" t="s">
-        <v>353</v>
+      <c r="L61">
+        <v>999999</v>
       </c>
       <c r="M61" t="s">
         <v>6</v>
@@ -4806,8 +4803,8 @@
       <c r="K62" t="s">
         <v>169</v>
       </c>
-      <c r="L62" t="s">
-        <v>353</v>
+      <c r="L62">
+        <v>999999</v>
       </c>
       <c r="M62" t="s">
         <v>6</v>
@@ -4853,8 +4850,8 @@
       <c r="K63">
         <v>344</v>
       </c>
-      <c r="L63" t="s">
-        <v>353</v>
+      <c r="L63">
+        <v>999999</v>
       </c>
       <c r="M63" t="s">
         <v>6</v>
@@ -4900,8 +4897,8 @@
       <c r="K64" t="s">
         <v>174</v>
       </c>
-      <c r="L64" t="s">
-        <v>353</v>
+      <c r="L64">
+        <v>999999</v>
       </c>
       <c r="M64" t="s">
         <v>6</v>
@@ -4947,8 +4944,8 @@
       <c r="K65" t="s">
         <v>177</v>
       </c>
-      <c r="L65" t="s">
-        <v>353</v>
+      <c r="L65">
+        <v>999999</v>
       </c>
       <c r="M65" t="s">
         <v>6</v>
@@ -4994,8 +4991,8 @@
       <c r="K66">
         <v>500</v>
       </c>
-      <c r="L66" t="s">
-        <v>353</v>
+      <c r="L66">
+        <v>999999</v>
       </c>
       <c r="M66" t="s">
         <v>6</v>
@@ -5041,8 +5038,8 @@
       <c r="K67">
         <v>501</v>
       </c>
-      <c r="L67" t="s">
-        <v>353</v>
+      <c r="L67">
+        <v>999999</v>
       </c>
       <c r="M67" t="s">
         <v>6</v>
@@ -5088,8 +5085,8 @@
       <c r="K68">
         <v>502</v>
       </c>
-      <c r="L68" t="s">
-        <v>353</v>
+      <c r="L68">
+        <v>999999</v>
       </c>
       <c r="M68" t="s">
         <v>6</v>
@@ -5135,8 +5132,8 @@
       <c r="K69">
         <v>503</v>
       </c>
-      <c r="L69" t="s">
-        <v>353</v>
+      <c r="L69">
+        <v>999999</v>
       </c>
       <c r="M69" t="s">
         <v>6</v>
@@ -5182,8 +5179,8 @@
       <c r="K70">
         <v>504</v>
       </c>
-      <c r="L70" t="s">
-        <v>353</v>
+      <c r="L70">
+        <v>999999</v>
       </c>
       <c r="M70" t="s">
         <v>6</v>
@@ -5229,8 +5226,8 @@
       <c r="K71" t="s">
         <v>190</v>
       </c>
-      <c r="L71" t="s">
-        <v>353</v>
+      <c r="L71">
+        <v>999999</v>
       </c>
       <c r="M71" t="s">
         <v>6</v>
@@ -5276,8 +5273,8 @@
       <c r="K72" t="s">
         <v>193</v>
       </c>
-      <c r="L72" t="s">
-        <v>353</v>
+      <c r="L72">
+        <v>999999</v>
       </c>
       <c r="M72" t="s">
         <v>6</v>
@@ -5323,8 +5320,8 @@
       <c r="K73" t="s">
         <v>196</v>
       </c>
-      <c r="L73" t="s">
-        <v>353</v>
+      <c r="L73">
+        <v>999999</v>
       </c>
       <c r="M73" t="s">
         <v>6</v>
@@ -5370,8 +5367,8 @@
       <c r="K74">
         <v>505</v>
       </c>
-      <c r="L74" t="s">
-        <v>353</v>
+      <c r="L74">
+        <v>999999</v>
       </c>
       <c r="M74" t="s">
         <v>6</v>
@@ -5417,8 +5414,8 @@
       <c r="K75" t="s">
         <v>201</v>
       </c>
-      <c r="L75" t="s">
-        <v>353</v>
+      <c r="L75">
+        <v>999999</v>
       </c>
       <c r="M75" t="s">
         <v>6</v>
@@ -5464,8 +5461,8 @@
       <c r="K76" t="s">
         <v>204</v>
       </c>
-      <c r="L76" t="s">
-        <v>353</v>
+      <c r="L76">
+        <v>999999</v>
       </c>
       <c r="M76" t="s">
         <v>6</v>
@@ -5511,8 +5508,8 @@
       <c r="K77" t="s">
         <v>207</v>
       </c>
-      <c r="L77" t="s">
-        <v>353</v>
+      <c r="L77">
+        <v>999999</v>
       </c>
       <c r="M77" t="s">
         <v>6</v>
@@ -5558,8 +5555,8 @@
       <c r="K78" t="s">
         <v>210</v>
       </c>
-      <c r="L78" t="s">
-        <v>353</v>
+      <c r="L78">
+        <v>999999</v>
       </c>
       <c r="M78" t="s">
         <v>6</v>
@@ -5605,8 +5602,8 @@
       <c r="K79" t="s">
         <v>213</v>
       </c>
-      <c r="L79" t="s">
-        <v>353</v>
+      <c r="L79">
+        <v>999999</v>
       </c>
       <c r="M79" t="s">
         <v>6</v>
@@ -5652,8 +5649,8 @@
       <c r="K80" t="s">
         <v>216</v>
       </c>
-      <c r="L80" t="s">
-        <v>353</v>
+      <c r="L80">
+        <v>999999</v>
       </c>
       <c r="M80" t="s">
         <v>6</v>
@@ -5699,8 +5696,8 @@
       <c r="K81">
         <v>509</v>
       </c>
-      <c r="L81" t="s">
-        <v>353</v>
+      <c r="L81">
+        <v>999999</v>
       </c>
       <c r="M81" t="s">
         <v>6</v>
@@ -5746,8 +5743,8 @@
       <c r="K82" t="s">
         <v>221</v>
       </c>
-      <c r="L82" t="s">
-        <v>353</v>
+      <c r="L82">
+        <v>999999</v>
       </c>
       <c r="M82" t="s">
         <v>6</v>
@@ -5793,8 +5790,8 @@
       <c r="K83">
         <v>510</v>
       </c>
-      <c r="L83" t="s">
-        <v>353</v>
+      <c r="L83">
+        <v>999999</v>
       </c>
       <c r="M83" t="s">
         <v>6</v>
@@ -5840,8 +5837,8 @@
       <c r="K84">
         <v>511</v>
       </c>
-      <c r="L84" t="s">
-        <v>353</v>
+      <c r="L84">
+        <v>999999</v>
       </c>
       <c r="M84" t="s">
         <v>6</v>
@@ -5887,8 +5884,8 @@
       <c r="K85">
         <v>512</v>
       </c>
-      <c r="L85" t="s">
-        <v>353</v>
+      <c r="L85">
+        <v>999999</v>
       </c>
       <c r="M85" t="s">
         <v>6</v>
@@ -5934,8 +5931,8 @@
       <c r="K86">
         <v>513</v>
       </c>
-      <c r="L86" t="s">
-        <v>353</v>
+      <c r="L86">
+        <v>999999</v>
       </c>
       <c r="M86" t="s">
         <v>6</v>
@@ -5981,8 +5978,8 @@
       <c r="K87" t="s">
         <v>232</v>
       </c>
-      <c r="L87" t="s">
-        <v>353</v>
+      <c r="L87">
+        <v>999999</v>
       </c>
       <c r="M87" t="s">
         <v>6</v>
@@ -6028,8 +6025,8 @@
       <c r="K88">
         <v>514</v>
       </c>
-      <c r="L88" t="s">
-        <v>353</v>
+      <c r="L88">
+        <v>999999</v>
       </c>
       <c r="M88" t="s">
         <v>6</v>
@@ -6075,8 +6072,8 @@
       <c r="K89">
         <v>515</v>
       </c>
-      <c r="L89" t="s">
-        <v>353</v>
+      <c r="L89">
+        <v>999999</v>
       </c>
       <c r="M89" t="s">
         <v>6</v>
@@ -6122,8 +6119,8 @@
       <c r="K90">
         <v>516</v>
       </c>
-      <c r="L90" t="s">
-        <v>353</v>
+      <c r="L90">
+        <v>999999</v>
       </c>
       <c r="M90" t="s">
         <v>6</v>
@@ -6169,8 +6166,8 @@
       <c r="K91">
         <v>517</v>
       </c>
-      <c r="L91" t="s">
-        <v>353</v>
+      <c r="L91">
+        <v>999999</v>
       </c>
       <c r="M91" t="s">
         <v>6</v>
@@ -6216,8 +6213,8 @@
       <c r="K92">
         <v>518</v>
       </c>
-      <c r="L92" t="s">
-        <v>353</v>
+      <c r="L92">
+        <v>999999</v>
       </c>
       <c r="M92" t="s">
         <v>6</v>
@@ -6263,8 +6260,8 @@
       <c r="K93">
         <v>519</v>
       </c>
-      <c r="L93" t="s">
-        <v>353</v>
+      <c r="L93">
+        <v>999999</v>
       </c>
       <c r="M93" t="s">
         <v>6</v>
@@ -6310,8 +6307,8 @@
       <c r="K94">
         <v>520</v>
       </c>
-      <c r="L94" t="s">
-        <v>353</v>
+      <c r="L94">
+        <v>999999</v>
       </c>
       <c r="M94" t="s">
         <v>6</v>
@@ -6357,8 +6354,8 @@
       <c r="K95" t="s">
         <v>249</v>
       </c>
-      <c r="L95" t="s">
-        <v>353</v>
+      <c r="L95">
+        <v>999999</v>
       </c>
       <c r="M95" t="s">
         <v>6</v>
@@ -6404,8 +6401,8 @@
       <c r="K96" t="s">
         <v>252</v>
       </c>
-      <c r="L96" t="s">
-        <v>353</v>
+      <c r="L96">
+        <v>999999</v>
       </c>
       <c r="M96" t="s">
         <v>6</v>
@@ -6451,8 +6448,8 @@
       <c r="K97" t="s">
         <v>255</v>
       </c>
-      <c r="L97" t="s">
-        <v>353</v>
+      <c r="L97">
+        <v>999999</v>
       </c>
       <c r="M97" t="s">
         <v>6</v>
@@ -6498,8 +6495,8 @@
       <c r="K98" t="s">
         <v>258</v>
       </c>
-      <c r="L98" t="s">
-        <v>353</v>
+      <c r="L98">
+        <v>999999</v>
       </c>
       <c r="M98" t="s">
         <v>6</v>
@@ -6545,8 +6542,8 @@
       <c r="K99" t="s">
         <v>261</v>
       </c>
-      <c r="L99" t="s">
-        <v>353</v>
+      <c r="L99">
+        <v>999999</v>
       </c>
       <c r="M99" t="s">
         <v>6</v>
@@ -6592,8 +6589,8 @@
       <c r="K100" t="s">
         <v>264</v>
       </c>
-      <c r="L100" t="s">
-        <v>353</v>
+      <c r="L100">
+        <v>999999</v>
       </c>
       <c r="M100" t="s">
         <v>6</v>
@@ -6639,8 +6636,8 @@
       <c r="K101" t="s">
         <v>267</v>
       </c>
-      <c r="L101" t="s">
-        <v>353</v>
+      <c r="L101">
+        <v>999999</v>
       </c>
       <c r="M101" t="s">
         <v>6</v>
@@ -6686,8 +6683,8 @@
       <c r="K102" t="s">
         <v>270</v>
       </c>
-      <c r="L102" t="s">
-        <v>353</v>
+      <c r="L102">
+        <v>999999</v>
       </c>
       <c r="M102" t="s">
         <v>6</v>
@@ -6733,8 +6730,8 @@
       <c r="K103" t="s">
         <v>273</v>
       </c>
-      <c r="L103" t="s">
-        <v>353</v>
+      <c r="L103">
+        <v>999999</v>
       </c>
       <c r="M103" t="s">
         <v>6</v>
@@ -6780,8 +6777,8 @@
       <c r="K104" t="s">
         <v>276</v>
       </c>
-      <c r="L104" t="s">
-        <v>353</v>
+      <c r="L104">
+        <v>999999</v>
       </c>
       <c r="M104" t="s">
         <v>6</v>
@@ -6827,8 +6824,8 @@
       <c r="K105" t="s">
         <v>279</v>
       </c>
-      <c r="L105" t="s">
-        <v>353</v>
+      <c r="L105">
+        <v>999999</v>
       </c>
       <c r="M105" t="s">
         <v>6</v>
@@ -6874,8 +6871,8 @@
       <c r="K106" t="s">
         <v>282</v>
       </c>
-      <c r="L106" t="s">
-        <v>353</v>
+      <c r="L106">
+        <v>999999</v>
       </c>
       <c r="M106" t="s">
         <v>6</v>
@@ -6921,8 +6918,8 @@
       <c r="K107">
         <v>524</v>
       </c>
-      <c r="L107" t="s">
-        <v>353</v>
+      <c r="L107">
+        <v>999999</v>
       </c>
       <c r="M107" t="s">
         <v>6</v>
@@ -6968,8 +6965,8 @@
       <c r="K108">
         <v>725</v>
       </c>
-      <c r="L108" t="s">
-        <v>353</v>
+      <c r="L108">
+        <v>999999</v>
       </c>
       <c r="M108" t="s">
         <v>288</v>
@@ -7015,8 +7012,8 @@
       <c r="K109">
         <v>727</v>
       </c>
-      <c r="L109" t="s">
-        <v>353</v>
+      <c r="L109">
+        <v>999999</v>
       </c>
       <c r="M109" t="s">
         <v>288</v>
@@ -7062,8 +7059,8 @@
       <c r="K110">
         <v>729</v>
       </c>
-      <c r="L110" t="s">
-        <v>353</v>
+      <c r="L110">
+        <v>999999</v>
       </c>
       <c r="M110" t="s">
         <v>288</v>
@@ -7109,8 +7106,8 @@
       <c r="K111">
         <v>721</v>
       </c>
-      <c r="L111" t="s">
-        <v>353</v>
+      <c r="L111">
+        <v>999999</v>
       </c>
       <c r="M111" t="s">
         <v>288</v>
@@ -7156,8 +7153,8 @@
       <c r="K112">
         <v>723</v>
       </c>
-      <c r="L112" t="s">
-        <v>353</v>
+      <c r="L112">
+        <v>999999</v>
       </c>
       <c r="M112" t="s">
         <v>288</v>
